--- a/Misc/Excel/AIModuleCfg.xlsx
+++ b/Misc/Excel/AIModuleCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>${name}</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>monster0战斗</t>
+  </si>
+  <si>
+    <t>牧师战斗</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,9 +714,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1151,7 +1151,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1165,12 +1165,23 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2"/>

--- a/Misc/Excel/AIModuleCfg.xlsx
+++ b/Misc/Excel/AIModuleCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>${name}</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>牧师战斗</t>
+  </si>
+  <si>
+    <t>蓝战士战斗</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1183,8 +1186,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2"/>
